--- a/static/enter_your_reviews.xlsx
+++ b/static/enter_your_reviews.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Hotel_Address</t>
   </si>
@@ -53,30 +53,19 @@
 Always a great place to come when visiting Rotterdam. Staff is very nice and the food tastes good. I loved arriving with the water taxi</t>
   </si>
   <si>
-    <t xml:space="preserve">Excellent location, on the river front.
-Great views ....river taxi on the door step.
-Large suite, really good decor, unfortunately the breakfast was very limited, no fresh milk, cereal, toast etc..
-No parking available had to use a private underground parking, booked in advance 17€ otherwise 30€ per day!
-Excellent staff, very attentive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The bad &amp; the ugly: For a hotel of the budget line, I don't expect much and surely no luxury. Usually I'm quite satisfied with my IBIS budget stays. But here they failed at the very basics. The heating wasn't working as it should and as result the room was definitely too chill. I needed the second blanket from the third bed to stay warm at night. In addition to that, the shower hasn't kept the temperature when set properly in the beginning. It kept swinging forth and back from way too hot to too cold. The minor under normal circumstance negligible things like room not being cleaned probably, at least not vacuumed or sweept well, not to mention. According to the receptionist the technician didn't show up to fix the heating. But instead of getting another, one had to freeze for another night and now I'm back at home with a cold and dripping nose. Your mileage may vary, but overall I wouldn't recommend this hotel, especially for the prices asked.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linda’s hotel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV was on the blink due to loose aerial and kept losing signal. TV angle to bed wasn't ideal and had to crane neck. Shower didn't work well - its taps were incredibly stiff. Bathroom was aesthetically lackluster. Bed was uncomfortable. Blinds let a lot of light through and had a poor night's sleep. The worst part was the issue of noise - both from outside and from elsewhere within the hotel. Sound insulation was poor, and there was a real issue with banging sounds and noise that sounded as if it were coming from pipes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> · Not clean, a building site - should be closed whilst work going on. Dust everywhere.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I got there at 12 in the afternoon. I had a visit with a family member in hmp at 2pm. I was too early to check in. I had no where to get ready after travelling from Ireland. I left my bag in reception. Went for my visit. I filled the day visiting family friends. Returned to the guest house just after 11. I was locked outside. Sat outside freezing, ringing the phone and banging on the door. All my belongings were in there. I got a taxi to a hotel in the city centre. Where I slept till the next day. Got a taxi to the guest house. The guy behind the counter was too busy playing games on his phone, rather than check me into a room that had been mine from the day before. I eventually stood back up and said please. I just need my pyjamas and a cup of tea. I had a few hours left after paying for 2 days. The room was filthy. The staff were absolutely horrible. The old lady floats around like something out of a horror movie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The room was not clean at all dust all over the woodwork (dirt) the table was all chipped and damaged part of the windowsill was missing the base of the bed was dirty looked like it had been stood in water the quilt on the bed was really in big clumps it was a very very poor room and if I could have found somewhere else to stay I would have left</t>
+    <t xml:space="preserve">WiFi didn't work well and breakfast included was kind of poor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awful rooms , Ended up with bed bug bites </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIDDLED WITH COCKROACHES - YOU CAN EVEN SAY THEM COMING OUT THE BUILDING AND THE STAFF DONT EVEN CARE!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILTHY PLACE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filthy bedding, inadequate windows which didn't stop any noise. Two businesses attached to the property were carrying out maintenance between midnight and 4.30 am. The hotel refused to help so I left in the morning. They now refuse to refund! Avoid at all costs! </t>
   </si>
 </sst>
 </file>
@@ -86,7 +75,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
@@ -156,11 +145,6 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -310,7 +294,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -321,10 +305,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -423,10 +403,10 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.78"/>
@@ -476,125 +456,61 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="65.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
